--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H2">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.08493734603426</v>
+        <v>1.888921</v>
       </c>
       <c r="N2">
-        <v>1.08493734603426</v>
+        <v>5.666763</v>
       </c>
       <c r="O2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350329</v>
       </c>
       <c r="P2">
-        <v>0.4808910976560867</v>
+        <v>0.4551532417350328</v>
       </c>
       <c r="Q2">
-        <v>6.067722283944423</v>
+        <v>19.74850912635533</v>
       </c>
       <c r="R2">
-        <v>6.067722283944423</v>
+        <v>177.736582137198</v>
       </c>
       <c r="S2">
-        <v>0.003504066587945948</v>
+        <v>0.006125148965970325</v>
       </c>
       <c r="T2">
-        <v>0.003504066587945948</v>
+        <v>0.006125148965970323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H3">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.17116045099787</v>
+        <v>1.087098333333333</v>
       </c>
       <c r="N3">
-        <v>1.17116045099787</v>
+        <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094788</v>
       </c>
       <c r="P3">
-        <v>0.5191089023439134</v>
+        <v>0.2619465454094787</v>
       </c>
       <c r="Q3">
-        <v>6.549941701766966</v>
+        <v>11.36552103400778</v>
       </c>
       <c r="R3">
-        <v>6.549941701766966</v>
+        <v>102.28968930607</v>
       </c>
       <c r="S3">
-        <v>0.003782544881938053</v>
+        <v>0.003525102019790521</v>
       </c>
       <c r="T3">
-        <v>0.003782544881938053</v>
+        <v>0.00352510201979052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>731.088096626592</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H4">
-        <v>731.088096626592</v>
+        <v>31.364746</v>
       </c>
       <c r="I4">
-        <v>0.9525204087980228</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J4">
-        <v>0.9525204087980228</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.08493734603426</v>
+        <v>1.174057666666667</v>
       </c>
       <c r="N4">
-        <v>1.08493734603426</v>
+        <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="P4">
-        <v>0.4808910976560867</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="Q4">
-        <v>793.1847792712933</v>
+        <v>12.27467350145089</v>
       </c>
       <c r="R4">
-        <v>793.1847792712933</v>
+        <v>110.472061513058</v>
       </c>
       <c r="S4">
-        <v>0.4580585849267056</v>
+        <v>0.003807082510582955</v>
       </c>
       <c r="T4">
-        <v>0.4580585849267056</v>
+        <v>0.003807082510582955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H5">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.17116045099787</v>
+        <v>1.888921</v>
       </c>
       <c r="N5">
-        <v>1.17116045099787</v>
+        <v>5.666763</v>
       </c>
       <c r="O5">
-        <v>0.5191089023439134</v>
+        <v>0.4551532417350329</v>
       </c>
       <c r="P5">
-        <v>0.5191089023439134</v>
+        <v>0.4551532417350328</v>
       </c>
       <c r="Q5">
-        <v>856.2214649643738</v>
+        <v>1389.300088996308</v>
       </c>
       <c r="R5">
-        <v>856.2214649643738</v>
+        <v>12503.70080096678</v>
       </c>
       <c r="S5">
-        <v>0.4944618238713173</v>
+        <v>0.4309018948767963</v>
       </c>
       <c r="T5">
-        <v>0.4944618238713173</v>
+        <v>0.4309018948767963</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8493222598426</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H6">
-        <v>30.8493222598426</v>
+        <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J6">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.08493734603426</v>
+        <v>1.087098333333333</v>
       </c>
       <c r="N6">
-        <v>1.08493734603426</v>
+        <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.4808910976560867</v>
+        <v>0.2619465454094788</v>
       </c>
       <c r="P6">
-        <v>0.4808910976560867</v>
+        <v>0.2619465454094787</v>
       </c>
       <c r="Q6">
-        <v>33.46958181954925</v>
+        <v>799.5600722569861</v>
       </c>
       <c r="R6">
-        <v>33.46958181954925</v>
+        <v>7196.040650312874</v>
       </c>
       <c r="S6">
-        <v>0.01932844614143515</v>
+        <v>0.24798958333924</v>
       </c>
       <c r="T6">
-        <v>0.01932844614143515</v>
+        <v>0.2479895833392399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.8493222598426</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H7">
-        <v>30.8493222598426</v>
+        <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J7">
-        <v>0.04019297973209322</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.17116045099787</v>
+        <v>1.174057666666667</v>
       </c>
       <c r="N7">
-        <v>1.17116045099787</v>
+        <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.5191089023439134</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="P7">
-        <v>0.5191089023439134</v>
+        <v>0.2829002128554884</v>
       </c>
       <c r="Q7">
-        <v>36.12950617081589</v>
+        <v>863.5186017767807</v>
       </c>
       <c r="R7">
-        <v>36.12950617081589</v>
+        <v>7771.667415991025</v>
       </c>
       <c r="S7">
-        <v>0.02086453359065807</v>
+        <v>0.2678268033767938</v>
       </c>
       <c r="T7">
-        <v>0.02086453359065807</v>
+        <v>0.2678268033767938</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>30.939307</v>
+      </c>
+      <c r="H8">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I8">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J8">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.888921</v>
+      </c>
+      <c r="N8">
+        <v>5.666763</v>
+      </c>
+      <c r="O8">
+        <v>0.4551532417350329</v>
+      </c>
+      <c r="P8">
+        <v>0.4551532417350328</v>
+      </c>
+      <c r="Q8">
+        <v>58.441906717747</v>
+      </c>
+      <c r="R8">
+        <v>525.977160459723</v>
+      </c>
+      <c r="S8">
+        <v>0.01812619789226622</v>
+      </c>
+      <c r="T8">
+        <v>0.01812619789226622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>30.939307</v>
+      </c>
+      <c r="H9">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I9">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J9">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.087098333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.261295</v>
+      </c>
+      <c r="O9">
+        <v>0.2619465454094788</v>
+      </c>
+      <c r="P9">
+        <v>0.2619465454094787</v>
+      </c>
+      <c r="Q9">
+        <v>33.63406907418833</v>
+      </c>
+      <c r="R9">
+        <v>302.706621667695</v>
+      </c>
+      <c r="S9">
+        <v>0.01043186005044827</v>
+      </c>
+      <c r="T9">
+        <v>0.01043186005044826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30.939307</v>
+      </c>
+      <c r="H10">
+        <v>92.81792100000001</v>
+      </c>
+      <c r="I10">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="J10">
+        <v>0.03982438491082609</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.174057666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.522173</v>
+      </c>
+      <c r="O10">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="P10">
+        <v>0.2829002128554884</v>
+      </c>
+      <c r="Q10">
+        <v>36.32453058470367</v>
+      </c>
+      <c r="R10">
+        <v>326.9207752623331</v>
+      </c>
+      <c r="S10">
+        <v>0.0112663269681116</v>
+      </c>
+      <c r="T10">
+        <v>0.0112663269681116</v>
       </c>
     </row>
   </sheetData>
